--- a/Crédito disponível - Centralização - Campus Tobias Barreto.xlsx
+++ b/Crédito disponível - Centralização - Campus Tobias Barreto.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="42">
   <si>
     <t>Crédito disponível - Centralização - Campus Tobias Barreto</t>
   </si>
@@ -115,16 +115,16 @@
     <t xml:space="preserve">DESPESAS DE EXERCICIOS ANTERIORES</t>
   </si>
   <si>
+    <t xml:space="preserve">1444000000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DEM.APL.REC.TIT.TN,EX.RF.DIV.PUB.</t>
+  </si>
+  <si>
     <t xml:space="preserve">158134</t>
   </si>
   <si>
     <t xml:space="preserve">INST.FED.DE EDUC.,CIENC.E TEC.DE SERGIPE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1444000000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DEM.APL.REC.TIT.TN,EX.RF.DIV.PUB.</t>
   </si>
   <si>
     <t xml:space="preserve">2994</t>
@@ -381,7 +381,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:O24"/>
+  <dimension ref="A1:O27"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -560,7 +560,7 @@
       </c>
       <c r="L9" s="12"/>
       <c r="M9" s="12">
-        <v>9120.1</v>
+        <v>9320.1</v>
       </c>
       <c r="N9" s="12">
         <v>1599.3</v>
@@ -589,13 +589,13 @@
       </c>
       <c r="L10" s="12"/>
       <c r="M10" s="12">
-        <v>721608.84</v>
+        <v>744823.17</v>
       </c>
       <c r="N10" s="12">
-        <v>280706.47</v>
+        <v>323721.77</v>
       </c>
       <c r="O10" s="13">
-        <v>267853.29</v>
+        <v>315042.89</v>
       </c>
     </row>
     <row r="11">
@@ -618,13 +618,13 @@
       </c>
       <c r="L11" s="12"/>
       <c r="M11" s="12">
-        <v>81218.23</v>
+        <v>122428.94</v>
       </c>
       <c r="N11" s="12">
-        <v>42277.04</v>
+        <v>52062.98</v>
       </c>
       <c r="O11" s="13">
-        <v>33911.46</v>
+        <v>52062.98</v>
       </c>
     </row>
     <row r="12">
@@ -650,10 +650,10 @@
         <v>34697.66</v>
       </c>
       <c r="N12" s="12">
-        <v>15413.03</v>
+        <v>18649.18</v>
       </c>
       <c r="O12" s="13">
-        <v>14822.27</v>
+        <v>18649.18</v>
       </c>
     </row>
     <row r="13">
@@ -679,10 +679,10 @@
         <v>2013.28</v>
       </c>
       <c r="N13" s="12">
-        <v>1201.35</v>
+        <v>1637.78</v>
       </c>
       <c r="O13" s="13">
-        <v>1201.35</v>
+        <v>1637.78</v>
       </c>
     </row>
     <row r="14">
@@ -711,23 +711,19 @@
         <v>7322.95</v>
       </c>
       <c r="O14" s="13">
-        <v>6408.95</v>
+        <v>7322.95</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="10"/>
       <c r="B15" s="11"/>
-      <c r="C15" s="11" t="s">
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="D15" s="11" t="s">
+      <c r="F15" s="11" t="s">
         <v>35</v>
-      </c>
-      <c r="E15" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="F15" s="11" t="s">
-        <v>18</v>
       </c>
       <c r="G15" s="11">
         <v>3</v>
@@ -742,11 +738,9 @@
         <v>21</v>
       </c>
       <c r="K15" s="12">
-        <v>41410.71</v>
-      </c>
-      <c r="L15" s="12">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="L15" s="12"/>
       <c r="M15" s="12"/>
       <c r="N15" s="12"/>
       <c r="O15" s="13"/>
@@ -761,24 +755,20 @@
       <c r="G16" s="11"/>
       <c r="H16" s="11"/>
       <c r="I16" s="11" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="J16" s="11" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="K16" s="12">
         <v>0</v>
       </c>
       <c r="L16" s="12"/>
       <c r="M16" s="12">
-        <v>3612</v>
-      </c>
-      <c r="N16" s="12">
-        <v>1872</v>
-      </c>
-      <c r="O16" s="13">
-        <v>1872</v>
-      </c>
+        <v>68629.29</v>
+      </c>
+      <c r="N16" s="12"/>
+      <c r="O16" s="13"/>
     </row>
     <row r="17">
       <c r="A17" s="10"/>
@@ -790,38 +780,54 @@
       <c r="G17" s="11"/>
       <c r="H17" s="11"/>
       <c r="I17" s="11" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="J17" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="K17" s="12">
-        <v>23214.33</v>
+        <v>0</v>
       </c>
       <c r="L17" s="12"/>
-      <c r="M17" s="12"/>
+      <c r="M17" s="12">
+        <v>2800</v>
+      </c>
       <c r="N17" s="12"/>
       <c r="O17" s="13"/>
     </row>
     <row r="18">
       <c r="A18" s="10"/>
       <c r="B18" s="11"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="11"/>
+      <c r="C18" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="F18" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G18" s="11">
+        <v>3</v>
+      </c>
+      <c r="H18" s="11" t="s">
+        <v>19</v>
+      </c>
       <c r="I18" s="11" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="J18" s="11" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="K18" s="12">
-        <v>41205.62</v>
-      </c>
-      <c r="L18" s="12"/>
+        <v>0</v>
+      </c>
+      <c r="L18" s="12">
+        <v>0</v>
+      </c>
       <c r="M18" s="12"/>
       <c r="N18" s="12"/>
       <c r="O18" s="13"/>
@@ -836,20 +842,24 @@
       <c r="G19" s="11"/>
       <c r="H19" s="11"/>
       <c r="I19" s="11" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="J19" s="11" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="K19" s="12">
         <v>0</v>
       </c>
-      <c r="L19" s="12">
-        <v>0</v>
-      </c>
-      <c r="M19" s="12"/>
-      <c r="N19" s="12"/>
-      <c r="O19" s="13"/>
+      <c r="L19" s="12"/>
+      <c r="M19" s="12">
+        <v>3612</v>
+      </c>
+      <c r="N19" s="12">
+        <v>1872</v>
+      </c>
+      <c r="O19" s="13">
+        <v>1872</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="10"/>
@@ -861,10 +871,10 @@
       <c r="G20" s="11"/>
       <c r="H20" s="11"/>
       <c r="I20" s="11" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="J20" s="11" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="K20" s="12">
         <v>0</v>
@@ -879,127 +889,97 @@
       <c r="B21" s="11"/>
       <c r="C21" s="11"/>
       <c r="D21" s="11"/>
-      <c r="E21" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="F21" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="G21" s="11">
-        <v>3</v>
-      </c>
-      <c r="H21" s="11" t="s">
-        <v>19</v>
-      </c>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
       <c r="I21" s="11" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="J21" s="11" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="K21" s="12">
-        <v>192233</v>
-      </c>
-      <c r="L21" s="12">
-        <v>0</v>
-      </c>
+        <v>41205.62</v>
+      </c>
+      <c r="L21" s="12"/>
       <c r="M21" s="12"/>
       <c r="N21" s="12"/>
       <c r="O21" s="13"/>
     </row>
     <row r="22">
-      <c r="A22" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="B22" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="C22" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="D22" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="E22" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="F22" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="G22" s="11">
-        <v>3</v>
-      </c>
-      <c r="H22" s="11" t="s">
-        <v>19</v>
-      </c>
+      <c r="A22" s="10"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
       <c r="I22" s="11" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="J22" s="11" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="K22" s="12">
-        <v>261</v>
-      </c>
-      <c r="L22" s="12"/>
+        <v>0</v>
+      </c>
+      <c r="L22" s="12">
+        <v>0</v>
+      </c>
       <c r="M22" s="12"/>
       <c r="N22" s="12"/>
       <c r="O22" s="13"/>
     </row>
     <row r="23">
-      <c r="A23" s="14"/>
-      <c r="B23" s="15"/>
-      <c r="C23" s="15"/>
-      <c r="D23" s="15"/>
+      <c r="A23" s="10"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
       <c r="E23" s="11"/>
       <c r="F23" s="11"/>
       <c r="G23" s="11"/>
       <c r="H23" s="11"/>
       <c r="I23" s="11" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="J23" s="11" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="K23" s="12">
-        <v>3226</v>
+        <v>0</v>
       </c>
       <c r="L23" s="12"/>
-      <c r="M23" s="12">
-        <v>151509</v>
-      </c>
-      <c r="N23" s="12">
-        <v>19908.5</v>
-      </c>
-      <c r="O23" s="13">
-        <v>19781.83</v>
-      </c>
+      <c r="M23" s="12"/>
+      <c r="N23" s="12"/>
+      <c r="O23" s="13"/>
     </row>
     <row r="24">
-      <c r="A24" s="14"/>
-      <c r="B24" s="15"/>
-      <c r="C24" s="15"/>
-      <c r="D24" s="15"/>
-      <c r="E24" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="F24" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="G24" s="15">
+      <c r="A24" s="10"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="F24" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="G24" s="11">
         <v>3</v>
       </c>
-      <c r="H24" s="15" t="s">
+      <c r="H24" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="I24" s="15" t="s">
+      <c r="I24" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="J24" s="15" t="s">
+      <c r="J24" s="11" t="s">
         <v>21</v>
       </c>
       <c r="K24" s="12">
-        <v>8995</v>
+        <v>120803.71</v>
       </c>
       <c r="L24" s="12">
         <v>0</v>
@@ -1008,8 +988,109 @@
       <c r="N24" s="12"/>
       <c r="O24" s="13"/>
     </row>
+    <row r="25">
+      <c r="A25" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="B25" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="C25" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="D25" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="E25" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="F25" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G25" s="11">
+        <v>3</v>
+      </c>
+      <c r="H25" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="I25" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="J25" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="K25" s="12">
+        <v>261</v>
+      </c>
+      <c r="L25" s="12"/>
+      <c r="M25" s="12"/>
+      <c r="N25" s="12"/>
+      <c r="O25" s="13"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="14"/>
+      <c r="B26" s="15"/>
+      <c r="C26" s="15"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="11"/>
+      <c r="I26" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="J26" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="K26" s="12">
+        <v>3226</v>
+      </c>
+      <c r="L26" s="12"/>
+      <c r="M26" s="12">
+        <v>151509</v>
+      </c>
+      <c r="N26" s="12">
+        <v>40225.17</v>
+      </c>
+      <c r="O26" s="13">
+        <v>40225.17</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="14"/>
+      <c r="B27" s="15"/>
+      <c r="C27" s="15"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="F27" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="G27" s="15">
+        <v>3</v>
+      </c>
+      <c r="H27" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="I27" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="J27" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="K27" s="12">
+        <v>8995</v>
+      </c>
+      <c r="L27" s="12">
+        <v>0</v>
+      </c>
+      <c r="M27" s="12"/>
+      <c r="N27" s="12"/>
+      <c r="O27" s="13"/>
+    </row>
   </sheetData>
-  <mergeCells count="29">
+  <mergeCells count="33">
     <mergeCell ref="A3:O3"/>
     <mergeCell ref="A4:O4"/>
     <mergeCell ref="A6:B7"/>
@@ -1017,28 +1098,32 @@
     <mergeCell ref="E6:F7"/>
     <mergeCell ref="G6:H7"/>
     <mergeCell ref="I6:J7"/>
-    <mergeCell ref="A8:A21"/>
-    <mergeCell ref="B8:B21"/>
-    <mergeCell ref="C8:C14"/>
-    <mergeCell ref="D8:D14"/>
+    <mergeCell ref="A8:A24"/>
+    <mergeCell ref="B8:B24"/>
+    <mergeCell ref="C8:C17"/>
+    <mergeCell ref="D8:D17"/>
     <mergeCell ref="E8:E14"/>
     <mergeCell ref="F8:F14"/>
     <mergeCell ref="G8:G14"/>
     <mergeCell ref="H8:H14"/>
-    <mergeCell ref="C15:C21"/>
-    <mergeCell ref="D15:D21"/>
-    <mergeCell ref="E15:E20"/>
-    <mergeCell ref="F15:F20"/>
-    <mergeCell ref="G15:G20"/>
-    <mergeCell ref="H15:H20"/>
-    <mergeCell ref="A22:A24"/>
-    <mergeCell ref="B22:B24"/>
-    <mergeCell ref="C22:C24"/>
-    <mergeCell ref="D22:D24"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="E15:E17"/>
+    <mergeCell ref="F15:F17"/>
+    <mergeCell ref="G15:G17"/>
+    <mergeCell ref="H15:H17"/>
+    <mergeCell ref="C18:C24"/>
+    <mergeCell ref="D18:D24"/>
+    <mergeCell ref="E18:E23"/>
+    <mergeCell ref="F18:F23"/>
+    <mergeCell ref="G18:G23"/>
+    <mergeCell ref="H18:H23"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="B25:B27"/>
+    <mergeCell ref="C25:C27"/>
+    <mergeCell ref="D25:D27"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="H25:H26"/>
   </mergeCells>
 </worksheet>
 </file>
--- a/Crédito disponível - Centralização - Campus Tobias Barreto.xlsx
+++ b/Crédito disponível - Centralização - Campus Tobias Barreto.xlsx
@@ -563,10 +563,10 @@
         <v>9320.1</v>
       </c>
       <c r="N9" s="12">
-        <v>1599.3</v>
+        <v>3929.35</v>
       </c>
       <c r="O9" s="13">
-        <v>1599.3</v>
+        <v>2981.49</v>
       </c>
     </row>
     <row r="10">
@@ -592,10 +592,10 @@
         <v>744823.17</v>
       </c>
       <c r="N10" s="12">
-        <v>323721.77</v>
+        <v>469660.57</v>
       </c>
       <c r="O10" s="13">
-        <v>315042.89</v>
+        <v>462394.27</v>
       </c>
     </row>
     <row r="11">
@@ -618,13 +618,13 @@
       </c>
       <c r="L11" s="12"/>
       <c r="M11" s="12">
-        <v>122428.94</v>
+        <v>122297.85</v>
       </c>
       <c r="N11" s="12">
-        <v>52062.98</v>
+        <v>71124.35</v>
       </c>
       <c r="O11" s="13">
-        <v>52062.98</v>
+        <v>71124.35</v>
       </c>
     </row>
     <row r="12">
@@ -647,13 +647,13 @@
       </c>
       <c r="L12" s="12"/>
       <c r="M12" s="12">
-        <v>34697.66</v>
+        <v>34828.75</v>
       </c>
       <c r="N12" s="12">
-        <v>18649.18</v>
+        <v>22681.66</v>
       </c>
       <c r="O12" s="13">
-        <v>18649.18</v>
+        <v>22681.66</v>
       </c>
     </row>
     <row r="13">
@@ -679,10 +679,10 @@
         <v>2013.28</v>
       </c>
       <c r="N13" s="12">
-        <v>1637.78</v>
+        <v>1899.72</v>
       </c>
       <c r="O13" s="13">
-        <v>1637.78</v>
+        <v>1899.72</v>
       </c>
     </row>
     <row r="14">
@@ -767,8 +767,12 @@
       <c r="M16" s="12">
         <v>68629.29</v>
       </c>
-      <c r="N16" s="12"/>
-      <c r="O16" s="13"/>
+      <c r="N16" s="12">
+        <v>5671.85</v>
+      </c>
+      <c r="O16" s="13">
+        <v>5671.85</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="10"/>
@@ -792,8 +796,12 @@
       <c r="M17" s="12">
         <v>2800</v>
       </c>
-      <c r="N17" s="12"/>
-      <c r="O17" s="13"/>
+      <c r="N17" s="12">
+        <v>223.92</v>
+      </c>
+      <c r="O17" s="13">
+        <v>223.92</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="10"/>
@@ -855,10 +863,10 @@
         <v>3612</v>
       </c>
       <c r="N19" s="12">
-        <v>1872</v>
+        <v>3612</v>
       </c>
       <c r="O19" s="13">
-        <v>1872</v>
+        <v>3612</v>
       </c>
     </row>
     <row r="20">
@@ -900,10 +908,12 @@
         <v>27</v>
       </c>
       <c r="K21" s="12">
-        <v>41205.62</v>
+        <v>35692.96</v>
       </c>
       <c r="L21" s="12"/>
-      <c r="M21" s="12"/>
+      <c r="M21" s="12">
+        <v>5512.66</v>
+      </c>
       <c r="N21" s="12"/>
       <c r="O21" s="13"/>
     </row>
@@ -979,7 +989,7 @@
         <v>21</v>
       </c>
       <c r="K24" s="12">
-        <v>120803.71</v>
+        <v>116970.61</v>
       </c>
       <c r="L24" s="12">
         <v>0</v>
@@ -1050,10 +1060,10 @@
         <v>151509</v>
       </c>
       <c r="N26" s="12">
-        <v>40225.17</v>
+        <v>71231.46</v>
       </c>
       <c r="O26" s="13">
-        <v>40225.17</v>
+        <v>71231.46</v>
       </c>
     </row>
     <row r="27">

--- a/Crédito disponível - Centralização - Campus Tobias Barreto.xlsx
+++ b/Crédito disponível - Centralização - Campus Tobias Barreto.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="42">
   <si>
     <t>Crédito disponível - Centralização - Campus Tobias Barreto</t>
   </si>
@@ -381,7 +381,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:O27"/>
+  <dimension ref="A1:O28"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -1030,7 +1030,7 @@
         <v>21</v>
       </c>
       <c r="K25" s="12">
-        <v>261</v>
+        <v>0</v>
       </c>
       <c r="L25" s="12"/>
       <c r="M25" s="12"/>
@@ -1053,11 +1053,11 @@
         <v>41</v>
       </c>
       <c r="K26" s="12">
-        <v>3226</v>
+        <v>0</v>
       </c>
       <c r="L26" s="12"/>
       <c r="M26" s="12">
-        <v>151509</v>
+        <v>154996</v>
       </c>
       <c r="N26" s="12">
         <v>71231.46</v>
@@ -1083,14 +1083,14 @@
       <c r="H27" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="I27" s="15" t="s">
+      <c r="I27" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="J27" s="15" t="s">
+      <c r="J27" s="11" t="s">
         <v>21</v>
       </c>
       <c r="K27" s="12">
-        <v>8995</v>
+        <v>3354</v>
       </c>
       <c r="L27" s="12">
         <v>0</v>
@@ -1099,8 +1099,33 @@
       <c r="N27" s="12"/>
       <c r="O27" s="13"/>
     </row>
+    <row r="28">
+      <c r="A28" s="14"/>
+      <c r="B28" s="15"/>
+      <c r="C28" s="15"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="15"/>
+      <c r="F28" s="15"/>
+      <c r="G28" s="15"/>
+      <c r="H28" s="15"/>
+      <c r="I28" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="J28" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="K28" s="12">
+        <v>0</v>
+      </c>
+      <c r="L28" s="12"/>
+      <c r="M28" s="12">
+        <v>5641</v>
+      </c>
+      <c r="N28" s="12"/>
+      <c r="O28" s="13"/>
+    </row>
   </sheetData>
-  <mergeCells count="33">
+  <mergeCells count="37">
     <mergeCell ref="A3:O3"/>
     <mergeCell ref="A4:O4"/>
     <mergeCell ref="A6:B7"/>
@@ -1126,14 +1151,18 @@
     <mergeCell ref="F18:F23"/>
     <mergeCell ref="G18:G23"/>
     <mergeCell ref="H18:H23"/>
-    <mergeCell ref="A25:A27"/>
-    <mergeCell ref="B25:B27"/>
-    <mergeCell ref="C25:C27"/>
-    <mergeCell ref="D25:D27"/>
+    <mergeCell ref="A25:A28"/>
+    <mergeCell ref="B25:B28"/>
+    <mergeCell ref="C25:C28"/>
+    <mergeCell ref="D25:D28"/>
     <mergeCell ref="E25:E26"/>
     <mergeCell ref="F25:F26"/>
     <mergeCell ref="G25:G26"/>
     <mergeCell ref="H25:H26"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="H27:H28"/>
   </mergeCells>
 </worksheet>
 </file>
--- a/Crédito disponível - Centralização - Campus Tobias Barreto.xlsx
+++ b/Crédito disponível - Centralização - Campus Tobias Barreto.xlsx
@@ -566,7 +566,7 @@
         <v>3929.35</v>
       </c>
       <c r="O9" s="13">
-        <v>2981.49</v>
+        <v>2993.77</v>
       </c>
     </row>
     <row r="10">
@@ -650,10 +650,10 @@
         <v>34828.75</v>
       </c>
       <c r="N12" s="12">
-        <v>22681.66</v>
+        <v>23991.66</v>
       </c>
       <c r="O12" s="13">
-        <v>22681.66</v>
+        <v>22805.46</v>
       </c>
     </row>
     <row r="13">
@@ -765,7 +765,7 @@
       </c>
       <c r="L16" s="12"/>
       <c r="M16" s="12">
-        <v>68629.29</v>
+        <v>70860.57</v>
       </c>
       <c r="N16" s="12">
         <v>5671.85</v>
@@ -989,7 +989,7 @@
         <v>21</v>
       </c>
       <c r="K24" s="12">
-        <v>116970.61</v>
+        <v>114739.33</v>
       </c>
       <c r="L24" s="12">
         <v>0</v>
